--- a/black_metals/data/up-stream/焦炭/焦炭产量.xlsx
+++ b/black_metals/data/up-stream/焦炭/焦炭产量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\up-stream\焦炭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\futures_nexus\black_metals\data\up-stream\焦炭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A1BEC-523A-464C-9293-C722368291CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477E4D15-6D05-4071-8809-D7A515D0E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{76514104-05E1-4E33-BDA9-42E9BE5113C6}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{287E0CAD-0914-4393-BEF8-0ECB3FA44625}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2D0B5193-D71B-4B30-A59D-228079D003DF}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvMshuzLZFyXmprY7fPmIsMmF4zvzCGYtDntn2WueAxKMSA7kHPTMbOVwC/AomWRVFsIY11T+M7arY+b4YMAHVIjfm4B2vwmpSxeOOAVxPv412B2I07IuhWhJ3+gipSdD8LfHS9CsVEeZa3ciQ8pcxW6o+ArKUXh+5iSa/cCi8ZSV3nhBAE3Q4m1OBBzuaADEd8eWHSFsc+8sZbpH49V88P4HpDAAACjQQo4YG39Ds5jzw9ron7jLRurhIp31Yyf/3gjktSbO5coBVdUfDiDrf2BRorUVZWt5JSzzMrBXOzjcfW1F7E/zK3F1Dhh37mOMPuh22duQB66Wtcue1HMf84AgL4AxS9Zpv25BDaZa8ML4IzxU0ja+SAF6XuJ4oMsrNBHTBH3N5a7GTZ5J6jbW/7tYBV6M4h1bYQqxpovQZXga9UZT0+UVqsv4jz5FclWafNBPt+pgzBvAhkrakm7VZaiNghD0gZyBZ0x9Ihmuqus0cnFdzjuHm2/nLhxGqg/PjhWHL5pcyuyOG2n1otO1RNHHzMrLm01KBT13kCOY8mcg5jeOEaBnYcj1TsmFNrNcKFPsFg0myc5lA7HJBjs7jlMWJY2PHFPQED8uzc9TEiLNzc8dA6AhToVkvopILRpg/IeUjwTHgY3+3ml/ULqYGgFcDbw0TLPHs19qZ5UwBK02ClOiZG7F0z+Pi/nhyAl3AgK9HhW3R7rINz5nHCxaJlnLOmnYWWo++oBHDUHDt3kkqBN7C/1miJ46KtY7gzmSkYQmOgZ9bqXxRUFkyTkD1Axb4AUkXeWw/d2zpUlPjzD8yNoupNQkK6Sf6ik+VjgDSHPgo1Vhqnc1GY9TfJjg8BOB174Y3/KcINESnCbjC3Dq26dM+fCsfajY8XdBgeqOWdj7I99HMCmmF/XHFuPoxDcdqf8STe3bgqybGQWXMolTWPnTDgWaWOA+aFALoJOoO7OVuhtfIZIYwJIah67WFHaN4Mlw4KX8Ns=</t>
+          <t>yVjpCgZpNvMNXOZrPGRUjatux4aeQw3aKMu5ngKuOCL4H47ZhWIw47jA/lHOjATAVWTrbhLLX1mHlgHv0/Izo2hN0PjsyLfgTAPSAEPalq4v2125G3QqVWOJQInWmNPoYiZq1YgJas8VNXEnnHG4B0eqjAP8LDYKK+hNUugpca5+qxX+o3XPtMiMfXh3ICQHHWZqiYu6GM9z18p0kg9q3xtFOqzgbx68WI9/Hon3OBl+FfMAYDHQrOOiI35STnrckpjP+Fr+Gu/F51J3KpN4uNVU+0mfdtLy2scj6rk0SVxlaj0XFxo1d8Xa6eESdSvU36sq5n7FqYKlc5DzOvc5wqQuG4R+BN7PfKVIugaL2s5xQ17Sh4TN7iAR/VUKLLbgZJNAb0BvKHvP4DuWh60PszvKkOsibj9VqKP2dbfGnnauKL4Jw3t0wJISxTATEvMPoikapFtyCeiloKUm1jJjxuOvtkPkVWD0L6VS1Lpy3INck8kOv9y445eD+YgaV4xe8CldxguWjSRLap8YIh+RHV+aZp3iupORyIRLsDR3su+uZ9L+Q+qUd70Pbbm69r6X4J1p1aAvsgRJoKN0fIC8Li6/fGLeolXDsMmeLDIqZoKM47jCTA3s5iy6ugFPTUOnUL7uLCbEx6UXdSFw14u9mXMBRDVN4K0pLNsej+N9KfCXVIE521FGFT5HhF6JRPx8CKdcy2zB3Z6cLfbgGVSpxK4GaivzWSB/HU2+cLUknGGAJrZNVSOVxMZPycI6MGrI7yPm6MpGy49U/hlazlv7jBCsZvZy8N0POsrY7CUKfIYdxruJqYznkpmJx88xe+op2Qh1FYlX4H2z71VWjscQ8XwXqT3vGdbyQLASE3fY2ThjUAjAbCzFbclTu32hf9FCqGUb1WjHl8Fv5gmeHaFEYvk/EUOJSig7MIBgLIBWHZfpZt8+HMgi2X8pVeK5Jyg1Y9NA6r8YTjxTC3f5WFXL2pxPnqhNxEBxeY/hynvpDuo=</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>指标名称</t>
   </si>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>国家统计局</t>
-  </si>
-  <si>
-    <t>数据来源：东方财富Choice数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据来源：东方财富Choice数据</t>
@@ -589,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCB21CD-592B-4F14-A7FA-8CF82B116F9A}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2667,19 +2663,32 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="125" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>45351</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5">
+        <v>8039</v>
+      </c>
+      <c r="D125" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A128" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
